--- a/satd_issue_dataset_TypeScript_tsuji.xlsx
+++ b/satd_issue_dataset_TypeScript_tsuji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7C8F6B0E-271E-624E-960A-8A5237B6E91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15B83EB-50EF-B841-ABC5-3E8D715477B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="-21100" windowWidth="29700" windowHeight="21100"/>
+    <workbookView xWindow="8680" yWindow="-21100" windowWidth="29700" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_TypeScript" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6335" uniqueCount="3171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6365" uniqueCount="3205">
   <si>
     <t>Issue</t>
   </si>
@@ -9541,11 +9541,305 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メインスレッドで発生する必要がある
+[Class]バグの修正</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]組み込みの拡張機能でソース マップのデバッグが機能しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]提案貢献の内部を改善する
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Workbench サービスはすべて /common/ レイヤーにある必要があります
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Event &amp; Emitter を優先して EventSource の使用を削除
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tests/run.sh は scripts/test.sh にする必要があります
+[Class]テストファイルのファイル名の変更</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どっちかややこしい</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エディターの抽象化とサービスのジャングル
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gulp-minify-css の代わりに gulp-cssnano を採用
+[Class]非推奨のツールへの対応</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t xml:space="preserve">ヒスイショウノ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]vs/base/parts/tree/common は偽物です
+[Class]メソッドの修正</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コードスタイル？の規則に違反？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Intellisense でのドキュメントのレンダリングとホバーに一貫性がない
+[Class]ドキュメントの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ThemeService と StorageService の混同
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]提案の不完全なフラグは、すべてのプロバイダーに適用されるべきではありません
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]マーシャリング/デマーシャリングのパフォーマンスを改善する
+[Class]関数の改善，パフォーマンスの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>_x0000__x0010__x0001__x0005_._x0002_</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>_x000B_1_x0002__x0010_&lt;</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]3 つの OSS タスクを 1 つに結合し、新しいフォルダー レイアウトを更新します
+[Class]フォルダの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テーマがアクティブなときにデフォルトのテーマを適用する必要がありますか?
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テーマの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ITextFileService#saveAs() は textFileEditorModel.save() を通過する必要があります
+[Class]機能の改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>_x0000__x0010__x0001__x0005_T</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>_x0002_
+T_x0002__x000F_</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>W_x0002__x0014_W_x0002_</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テキスト メイト スコープの平坦化が間違った色付けにつながる
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デバッグ コマンドの onCommand アクティベーションが期待どおりに機能しない
+[Class]機能の修正</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>_x0000__x0010__x0001__x0005_;</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]「ウォッチ」デバッグ ペインが空の場合、透かしはなく、ホバーしてもアクションはありません
+[Class]UI の改善</t>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">キノウノ カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サービスに依存しないアクションの作成を許可する必要があります
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MonacoEditorSchemas を削除するか、 languages/json に移動します
+[Class]ファイルの削除，移行</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>_x0000__x0010__x0001__x0005_G</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>_x0002_
+G_x0002__x000F_</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windows で分岐した Electron プロセスに対する ELECTRON_NO_ATTACH_CONSOLE の使用を調査する
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]デフォルト値ではスニペット構文を許可しない
+[Class]コードの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]大きなファイルでコードを折りたたむとエディターが遅くなる
+[Class]パフォーマンスの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -10503,17 +10797,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="69.7109375" customWidth="1"/>
   </cols>
@@ -10542,8 +10836,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3171</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -10553,8 +10850,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>3171</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -10564,8 +10864,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>3171</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -10575,8 +10878,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>3171</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>3170</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -10586,8 +10892,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>3171</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>3170</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -10597,8 +10906,17 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3179</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>3170</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -10608,8 +10926,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>3171</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>3170</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -10619,8 +10940,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>3181</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>3170</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -10630,8 +10954,17 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3185</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>3170</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -10641,8 +10974,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>3187</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>3170</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -10652,19 +10988,25 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>3171</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="63">
       <c r="A13">
         <v>2508</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>3171</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>3170</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -10674,8 +11016,14 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3171</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>3170</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -10685,8 +11033,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>3171</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>3170</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -10696,19 +11047,28 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3194</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="42">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="63">
       <c r="A17">
         <v>2777</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>3171</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>3170</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -10718,30 +11078,39 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>3171</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="63">
       <c r="A19">
         <v>3059</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>3171</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="63">
       <c r="A20">
         <v>3066</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>3199</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>3170</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -10751,8 +11120,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>3171</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>3170</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -10762,19 +11134,25 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>3171</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="42">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="63">
       <c r="A23">
         <v>3461</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>3171</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>3170</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -10784,8 +11162,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>3171</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>3170</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -10795,8 +11176,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>3191</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>3170</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
